--- a/base datos plantas.xlsx
+++ b/base datos plantas.xlsx
@@ -3,19 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E968A375-0829-484E-82F3-1F63C4F7087B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9599060-3ED3-419E-9E9A-40253886B5E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$L$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$2:$O$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$A$1:$E$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$P$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja3!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="408">
   <si>
     <t>KWH</t>
   </si>
@@ -1232,6 +1233,30 @@
   </si>
   <si>
     <t>INT TRV</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Nomenclatura</t>
+  </si>
+  <si>
+    <t>RotulacionSCADA</t>
+  </si>
+  <si>
+    <t>OrigenId</t>
+  </si>
+  <si>
+    <t>TensionId</t>
+  </si>
+  <si>
+    <t>SubestacionId</t>
+  </si>
+  <si>
+    <t>FuenteId</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1659,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView topLeftCell="B89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5766,10 +5791,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B2B90A-AA2D-4A3C-9464-A1A6D2D32972}">
-  <dimension ref="A2:P117"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5779,19 +5804,48 @@
     <col min="3" max="3" width="19.85546875" style="2" customWidth="1"/>
     <col min="4" max="5" width="28" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="10" width="21" style="2" customWidth="1"/>
-    <col min="11" max="12" width="25.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21" style="2" customWidth="1"/>
-    <col min="14" max="14" width="21" style="4" customWidth="1"/>
-    <col min="15" max="15" width="21" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21" style="4" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="28" style="2" customWidth="1"/>
+    <col min="10" max="11" width="21" style="2" customWidth="1"/>
+    <col min="12" max="13" width="25.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21" style="4" customWidth="1"/>
+    <col min="16" max="16" width="21" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21" style="4" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5808,7 +5862,7 @@
         <v>3176</v>
       </c>
       <c r="F2" s="4">
-        <f>IF(M2="PRIVADO",1,2)</f>
+        <f t="shared" ref="F2:F29" si="0">IF(N2="PRIVADO",1,2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="4">
@@ -5817,30 +5871,33 @@
       <c r="H2" s="4">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N2" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O2" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5857,7 +5914,7 @@
         <v>3296</v>
       </c>
       <c r="F3" s="4">
-        <f>IF(M3="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="4">
@@ -5866,30 +5923,33 @@
       <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N3" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5906,7 +5966,7 @@
         <v>3167</v>
       </c>
       <c r="F4" s="4">
-        <f>IF(M4="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="4">
@@ -5915,30 +5975,33 @@
       <c r="H4" s="4">
         <v>31</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5955,7 +6018,7 @@
         <v>3114</v>
       </c>
       <c r="F5" s="4">
-        <f>IF(M5="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="4">
@@ -5964,30 +6027,33 @@
       <c r="H5" s="4">
         <v>32</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N5" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6004,7 +6070,7 @@
         <v>3213</v>
       </c>
       <c r="F6" s="4">
-        <f>IF(M6="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -6013,30 +6079,33 @@
       <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" s="4">
         <v>138</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6053,7 +6122,7 @@
         <v>3420</v>
       </c>
       <c r="F7" s="4">
-        <f>IF(M7="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="4">
@@ -6062,30 +6131,33 @@
       <c r="H7" s="4">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O7" s="4">
         <v>69</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6102,7 +6174,7 @@
         <v>3025</v>
       </c>
       <c r="F8" s="4">
-        <f>IF(M8="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="4">
@@ -6111,30 +6183,33 @@
       <c r="H8" s="4">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6151,7 +6226,7 @@
         <v>3029</v>
       </c>
       <c r="F9" s="4">
-        <f>IF(M9="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G9" s="4">
@@ -6160,30 +6235,33 @@
       <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>138</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6200,7 +6278,7 @@
         <v>3180</v>
       </c>
       <c r="F10" s="4">
-        <f>IF(M10="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="4">
@@ -6209,30 +6287,33 @@
       <c r="H10" s="4">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="4">
         <v>138</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6249,7 +6330,7 @@
         <v>3163</v>
       </c>
       <c r="F11" s="4">
-        <f>IF(M11="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="4">
@@ -6258,30 +6339,33 @@
       <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N11" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O11" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6298,7 +6382,7 @@
         <v>2023</v>
       </c>
       <c r="F12" s="4">
-        <f>IF(M12="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G12" s="4">
@@ -6307,30 +6391,33 @@
       <c r="H12" s="4">
         <v>7</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>138</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6347,7 +6434,7 @@
         <v>3421</v>
       </c>
       <c r="F13" s="4">
-        <f>IF(M13="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="4">
@@ -6356,30 +6443,33 @@
       <c r="H13" s="4">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N13" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O13" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6396,7 +6486,7 @@
         <v>3299</v>
       </c>
       <c r="F14" s="4">
-        <f>IF(M14="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="4">
@@ -6405,30 +6495,33 @@
       <c r="H14" s="4">
         <v>9</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="4">
         <v>4.16</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6445,7 +6538,7 @@
         <v>3570</v>
       </c>
       <c r="F15" s="4">
-        <f>IF(M15="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="4">
@@ -6454,30 +6547,33 @@
       <c r="H15" s="4">
         <v>34</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="4">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N15" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6494,7 +6590,7 @@
         <v>3223</v>
       </c>
       <c r="F16" s="4">
-        <f>IF(M16="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="4">
@@ -6503,30 +6599,33 @@
       <c r="H16" s="4">
         <v>25</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O16" s="4">
         <v>230</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6543,7 +6642,7 @@
         <v>3223</v>
       </c>
       <c r="F17" s="4">
-        <f>IF(M17="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="4">
@@ -6552,30 +6651,33 @@
       <c r="H17" s="4">
         <v>25</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="4">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O17" s="4">
         <v>230</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6592,7 +6694,7 @@
         <v>3143</v>
       </c>
       <c r="F18" s="4">
-        <f>IF(M18="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G18" s="4">
@@ -6601,30 +6703,33 @@
       <c r="H18" s="4">
         <v>35</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N18" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6641,7 +6746,7 @@
         <v>3187</v>
       </c>
       <c r="F19" s="4">
-        <f>IF(M19="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="4">
@@ -6650,30 +6755,33 @@
       <c r="H19" s="4">
         <v>36</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N19" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O19" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6690,7 +6798,7 @@
         <v>3223</v>
       </c>
       <c r="F20" s="4">
-        <f>IF(M20="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20" s="4">
@@ -6699,30 +6807,33 @@
       <c r="H20" s="4">
         <v>25</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="4">
         <v>230</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6739,7 +6850,7 @@
         <v>3582</v>
       </c>
       <c r="F21" s="4">
-        <f>IF(M21="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21" s="4">
@@ -6748,30 +6859,33 @@
       <c r="H21" s="4">
         <v>23</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" s="4">
         <v>230</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6788,7 +6902,7 @@
         <v>3171</v>
       </c>
       <c r="F22" s="4">
-        <f>IF(M22="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G22" s="4">
@@ -6797,30 +6911,33 @@
       <c r="H22" s="4">
         <v>32</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N22" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6837,7 +6954,7 @@
         <v>3329</v>
       </c>
       <c r="F23" s="4">
-        <f>IF(M23="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="4">
@@ -6846,30 +6963,33 @@
       <c r="H23" s="4">
         <v>36</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4">
+        <v>4</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N23" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O23" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6886,7 +7006,7 @@
         <v>3158</v>
       </c>
       <c r="F24" s="4">
-        <f>IF(M24="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G24" s="4">
@@ -6895,30 +7015,33 @@
       <c r="H24" s="4">
         <v>38</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4">
+        <v>4</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N24" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6935,7 +7058,7 @@
         <v>3169</v>
       </c>
       <c r="F25" s="4">
-        <f>IF(M25="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G25" s="4">
@@ -6944,30 +7067,33 @@
       <c r="H25" s="4">
         <v>36</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N25" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6984,7 +7110,7 @@
         <v>3328</v>
       </c>
       <c r="F26" s="4">
-        <f>IF(M26="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26" s="4">
@@ -6993,30 +7119,33 @@
       <c r="H26" s="4">
         <v>35</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N26" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O26" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7033,7 +7162,7 @@
         <v>3146</v>
       </c>
       <c r="F27" s="4">
-        <f>IF(M27="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="4">
@@ -7042,30 +7171,33 @@
       <c r="H27" s="4">
         <v>29</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="4">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="N27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" s="4">
         <v>69</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7082,7 +7214,7 @@
         <v>3153</v>
       </c>
       <c r="F28" s="4">
-        <f>IF(M28="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G28" s="4">
@@ -7091,30 +7223,33 @@
       <c r="H28" s="4">
         <v>38</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="4">
+        <v>4</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N28" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7131,7 +7266,7 @@
         <v>3168</v>
       </c>
       <c r="F29" s="4">
-        <f>IF(M29="PRIVADO",1,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G29" s="4">
@@ -7140,30 +7275,33 @@
       <c r="H29" s="4">
         <v>39</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N29" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7180,7 +7318,7 @@
         <v>3032</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" ref="F30:F66" si="0">IF(M30="PRIVADO",1,2)</f>
+        <f t="shared" ref="F30:F66" si="1">IF(N30="PRIVADO",1,2)</f>
         <v>2</v>
       </c>
       <c r="G30" s="4">
@@ -7189,30 +7327,33 @@
       <c r="H30" s="4">
         <v>11</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="4">
+        <v>4</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="N30" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>230</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="P30" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7229,7 +7370,7 @@
         <v>3089</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G31" s="4">
@@ -7238,30 +7379,33 @@
       <c r="H31" s="4">
         <v>12</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="4">
+        <v>4</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="N31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>69</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -7278,7 +7422,7 @@
         <v>3424</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32" s="4">
@@ -7287,30 +7431,33 @@
       <c r="H32" s="4">
         <v>13</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="N32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" s="4">
         <v>69</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P32" s="2"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7327,7 +7474,7 @@
         <v>3059</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33" s="4">
@@ -7336,30 +7483,33 @@
       <c r="H33" s="4">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="4">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N33" s="4">
+      <c r="N33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" s="4">
         <v>138</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7376,7 +7526,7 @@
         <v>3019</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34" s="4">
@@ -7385,30 +7535,33 @@
       <c r="H34" s="4">
         <v>9</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N34" s="4">
+      <c r="N34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="4">
         <v>138</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7425,7 +7578,7 @@
         <v>3590</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G35" s="4">
@@ -7434,30 +7587,33 @@
       <c r="H35" s="4">
         <v>21</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="4">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N35" s="4">
+      <c r="N35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O35" s="4">
         <v>230</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7474,7 +7630,7 @@
         <v>3544</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G36" s="4">
@@ -7483,30 +7639,33 @@
       <c r="H36" s="4">
         <v>8</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="4">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="N36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O36" s="4">
         <v>230</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="P36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7523,7 +7682,7 @@
         <v>3204</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G37" s="4">
@@ -7532,30 +7691,33 @@
       <c r="H37" s="4">
         <v>2</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N37" s="4">
+      <c r="N37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O37" s="4">
         <v>138</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7572,7 +7734,7 @@
         <v>3142</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G38" s="4">
@@ -7581,30 +7743,33 @@
       <c r="H38" s="4">
         <v>35</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N38" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O38" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7621,7 +7786,7 @@
         <v>3453</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G39" s="4">
@@ -7630,30 +7795,33 @@
       <c r="H39" s="4">
         <v>35</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N39" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P39" s="2"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O39" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7670,7 +7838,7 @@
         <v>3106</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G40" s="4">
@@ -7679,30 +7847,33 @@
       <c r="H40" s="4">
         <v>25</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="4">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N40" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P40" s="2"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O40" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7719,7 +7890,7 @@
         <v>3106</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G41" s="4">
@@ -7728,30 +7899,33 @@
       <c r="H41" s="4">
         <v>33</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="4">
+        <v>6</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N41" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P41" s="2"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O41" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7768,7 +7942,7 @@
         <v>3568</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G42" s="4">
@@ -7777,30 +7951,33 @@
       <c r="H42" s="4">
         <v>7</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="4">
+        <v>4</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N42" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P42" s="2"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O42" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q42" s="2"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7817,7 +7994,7 @@
         <v>3244</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G43" s="4">
@@ -7826,30 +8003,33 @@
       <c r="H43" s="4">
         <v>26</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="4">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N43" s="4">
+      <c r="N43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O43" s="4">
         <v>69</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="P43" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P43" s="2"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="2"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7866,7 +8046,7 @@
         <v>3228</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G44" s="4">
@@ -7875,30 +8055,33 @@
       <c r="H44" s="4">
         <v>22</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N44" s="4">
+      <c r="N44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O44" s="4">
         <v>138</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="P44" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P44" s="2"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7915,7 +8098,7 @@
         <v>3139</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G45" s="4">
@@ -7924,30 +8107,33 @@
       <c r="H45" s="4">
         <v>35</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="4">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N45" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P45" s="2"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O45" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q45" s="2"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7964,7 +8150,7 @@
         <v>3106</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G46" s="4">
@@ -7973,30 +8159,33 @@
       <c r="H46" s="4">
         <v>25</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="4">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N46" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P46" s="2"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O46" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -8013,7 +8202,7 @@
         <v>3065</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G47" s="4">
@@ -8022,30 +8211,33 @@
       <c r="H47" s="4">
         <v>6</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N47" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P47" s="2"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O47" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8062,7 +8254,7 @@
         <v>3167</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G48" s="4">
@@ -8071,30 +8263,33 @@
       <c r="H48" s="4">
         <v>31</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N48" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P48" s="2"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O48" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8111,7 +8306,7 @@
         <v>3420</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G49" s="4">
@@ -8120,30 +8315,33 @@
       <c r="H49" s="4">
         <v>16</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N49" s="4">
+      <c r="N49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O49" s="4">
         <v>69</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="P49" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="2"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8160,7 +8358,7 @@
         <v>3180</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G50" s="4">
@@ -8169,30 +8367,33 @@
       <c r="H50" s="4">
         <v>6</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N50" s="4">
+      <c r="N50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O50" s="4">
         <v>138</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="P50" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8209,7 +8410,7 @@
         <v>3143</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G51" s="4">
@@ -8218,30 +8419,33 @@
       <c r="H51" s="4">
         <v>35</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N51" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O51" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q51" s="2"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8258,7 +8462,7 @@
         <v>3168</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G52" s="4">
@@ -8267,30 +8471,33 @@
       <c r="H52" s="4">
         <v>39</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N52" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O52" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8307,7 +8514,7 @@
         <v>3424</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G53" s="4">
@@ -8316,30 +8523,33 @@
       <c r="H53" s="4">
         <v>13</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="N53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O53" s="4">
         <v>69</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="2"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8356,7 +8566,7 @@
         <v>3244</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G54" s="4">
@@ -8365,30 +8575,33 @@
       <c r="H54" s="4">
         <v>26</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="I54" s="4">
+        <v>3</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N54" s="4">
+      <c r="N54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O54" s="4">
         <v>69</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8405,7 +8618,7 @@
         <v>3228</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G55" s="4">
@@ -8414,30 +8627,33 @@
       <c r="H55" s="4">
         <v>22</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="I55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N55" s="4">
+      <c r="N55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O55" s="4">
         <v>138</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="P55" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="2"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -8454,7 +8670,7 @@
         <v>3149</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G56" s="4">
@@ -8463,30 +8679,33 @@
       <c r="H56" s="4">
         <v>35</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="I56" s="4">
+        <v>2</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N56" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O56" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -8503,37 +8722,42 @@
         <v>3330</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G57" s="4">
         <v>2</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="2" t="s">
+      <c r="H57" s="4">
+        <v>37</v>
+      </c>
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N57" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O57" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -8550,7 +8774,7 @@
         <v>3220</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G58" s="4">
@@ -8559,30 +8783,33 @@
       <c r="H58" s="4">
         <v>22</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N58" s="4">
+      <c r="N58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O58" s="4">
         <v>138</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -8599,7 +8826,7 @@
         <v>3412</v>
       </c>
       <c r="F59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G59" s="4">
@@ -8608,30 +8835,33 @@
       <c r="H59" s="4">
         <v>33</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N59" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P59" s="2"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O59" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -8648,7 +8878,7 @@
         <v>3175</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G60" s="4">
@@ -8657,30 +8887,33 @@
       <c r="H60" s="4">
         <v>29</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N60" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P60" s="2"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O60" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -8697,7 +8930,7 @@
         <v>3567</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G61" s="4">
@@ -8706,30 +8939,33 @@
       <c r="H61" s="4">
         <v>36</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="4">
+        <v>4</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N61" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P61" s="2"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N61" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O61" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -8746,7 +8982,7 @@
         <v>3162</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G62" s="4">
@@ -8755,30 +8991,33 @@
       <c r="H62" s="4">
         <v>36</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="4">
+        <v>4</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N62" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O62" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -8795,37 +9034,42 @@
         <v>3144</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G63" s="4">
         <v>2</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="2" t="s">
+      <c r="H63" s="4">
+        <v>40</v>
+      </c>
+      <c r="I63" s="4">
+        <v>4</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N63" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P63" s="2"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O63" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -8842,7 +9086,7 @@
         <v>3421</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G64" s="4">
@@ -8851,30 +9095,33 @@
       <c r="H64" s="4">
         <v>33</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M64" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N64" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O64" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P64" s="2"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O64" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -8891,37 +9138,42 @@
         <v>3017</v>
       </c>
       <c r="F65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="2" t="s">
+      <c r="H65" s="4">
+        <v>41</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="N65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N65" s="4">
+      <c r="O65" s="4">
         <v>4.16</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="P65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P65" s="2"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -8938,37 +9190,42 @@
         <v>3018</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="2" t="s">
+      <c r="H66" s="4">
+        <v>41</v>
+      </c>
+      <c r="I66" s="4">
+        <v>2</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="N66" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N66" s="4">
+      <c r="O66" s="4">
         <v>4.16</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="P66" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -8985,7 +9242,7 @@
         <v>3552</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" ref="F67:F117" si="1">IF(M67="PRIVADO",1,2)</f>
+        <f t="shared" ref="F67:F117" si="2">IF(N67="PRIVADO",1,2)</f>
         <v>1</v>
       </c>
       <c r="G67" s="4">
@@ -8994,30 +9251,33 @@
       <c r="H67" s="4">
         <v>17</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="4">
+        <v>4</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M67" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N67" s="4">
+      <c r="N67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O67" s="4">
         <v>230</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P67" s="2"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -9034,7 +9294,7 @@
         <v>3318</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G68" s="4">
@@ -9043,30 +9303,33 @@
       <c r="H68" s="4">
         <v>15</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="4">
+        <v>2</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N68" s="4">
+      <c r="N68" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O68" s="4">
         <v>138</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="P68" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P68" s="2"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -9083,7 +9346,7 @@
         <v>3068</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G69" s="4">
@@ -9092,30 +9355,33 @@
       <c r="H69" s="4">
         <v>32</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="4">
+        <v>2</v>
+      </c>
+      <c r="J69" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N69" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O69" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P69" s="2"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O69" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -9132,7 +9398,7 @@
         <v>3318</v>
       </c>
       <c r="F70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G70" s="4">
@@ -9141,30 +9407,33 @@
       <c r="H70" s="4">
         <v>15</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="4">
+        <v>2</v>
+      </c>
+      <c r="J70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N70" s="4">
+      <c r="N70" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O70" s="4">
         <v>138</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="P70" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P70" s="2"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -9181,7 +9450,7 @@
         <v>3318</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G71" s="4">
@@ -9190,30 +9459,33 @@
       <c r="H71" s="4">
         <v>15</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="4">
+        <v>2</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N71" s="4">
+      <c r="N71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O71" s="4">
         <v>138</v>
       </c>
-      <c r="O71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P71" s="2"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -9230,7 +9502,7 @@
         <v>3230</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G72" s="4">
@@ -9239,30 +9511,33 @@
       <c r="H72" s="4">
         <v>25</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="4">
+        <v>6</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N72" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O72" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O72" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -9279,7 +9554,7 @@
         <v>3156</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G73" s="4">
@@ -9288,30 +9563,33 @@
       <c r="H73" s="4">
         <v>5</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="I73" s="4">
+        <v>4</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N73" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P73" s="2"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N73" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O73" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -9328,7 +9606,7 @@
         <v>3177</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G74" s="4">
@@ -9337,30 +9615,33 @@
       <c r="H74" s="4">
         <v>38</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="4">
+        <v>4</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N74" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P74" s="2"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O74" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -9377,37 +9658,42 @@
         <v>3090</v>
       </c>
       <c r="F75" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="2" t="s">
+      <c r="H75" s="4">
+        <v>42</v>
+      </c>
+      <c r="I75" s="4">
+        <v>6</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N75" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P75" s="2"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N75" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O75" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -9424,37 +9710,42 @@
         <v>3330</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G76" s="4">
         <v>2</v>
       </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="2" t="s">
+      <c r="H76" s="4">
+        <v>37</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N76" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P76" s="2"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O76" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -9471,7 +9762,7 @@
         <v>3436</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G77" s="4">
@@ -9480,30 +9771,33 @@
       <c r="H77" s="4">
         <v>35</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="4">
+        <v>6</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="K77" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N77" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P77" s="2"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N77" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O77" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -9520,7 +9814,7 @@
         <v>3301</v>
       </c>
       <c r="F78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G78" s="4">
@@ -9529,30 +9823,33 @@
       <c r="H78" s="4">
         <v>21</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="4">
+        <v>2</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N78" s="4">
+      <c r="N78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O78" s="4">
         <v>230</v>
       </c>
-      <c r="O78" s="2" t="s">
+      <c r="P78" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P78" s="2"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -9569,7 +9866,7 @@
         <v>3079</v>
       </c>
       <c r="F79" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G79" s="4">
@@ -9578,30 +9875,33 @@
       <c r="H79" s="4">
         <v>19</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="4">
+        <v>2</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N79" s="4">
+      <c r="N79" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O79" s="4">
         <v>230</v>
       </c>
-      <c r="O79" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P79" s="2"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -9618,7 +9918,7 @@
         <v>3080</v>
       </c>
       <c r="F80" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G80" s="4">
@@ -9627,30 +9927,33 @@
       <c r="H80" s="4">
         <v>20</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="4">
+        <v>2</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N80" s="4">
+      <c r="N80" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O80" s="4">
         <v>230</v>
       </c>
-      <c r="O80" s="2" t="s">
+      <c r="P80" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -9667,37 +9970,42 @@
         <v>3174</v>
       </c>
       <c r="F81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G81" s="4">
         <v>2</v>
       </c>
-      <c r="H81" s="4"/>
-      <c r="I81" s="2" t="s">
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4">
+        <v>4</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M81" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N81" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P81" s="2"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N81" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O81" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -9714,7 +10022,7 @@
         <v>3106</v>
       </c>
       <c r="F82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G82" s="4">
@@ -9723,30 +10031,33 @@
       <c r="H82" s="4">
         <v>26</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="4">
+        <v>6</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N82" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P82" s="2"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O82" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -9763,37 +10074,42 @@
         <v>3215</v>
       </c>
       <c r="F83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G83" s="4">
         <v>2</v>
       </c>
-      <c r="H83" s="4"/>
-      <c r="I83" s="2" t="s">
+      <c r="H83" s="4">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4">
+        <v>4</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N83" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P83" s="2"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O83" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -9810,7 +10126,7 @@
         <v>3593</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G84" s="4">
@@ -9819,30 +10135,33 @@
       <c r="H84" s="4">
         <v>26</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="4">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="M84" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M84" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N84" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P84" s="2"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N84" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O84" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -9859,7 +10178,7 @@
         <v>3220</v>
       </c>
       <c r="F85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G85" s="4">
@@ -9868,30 +10187,33 @@
       <c r="H85" s="4">
         <v>22</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="4">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N85" s="4">
+      <c r="N85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O85" s="4">
         <v>138</v>
       </c>
-      <c r="O85" s="2" t="s">
+      <c r="P85" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P85" s="2"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -9908,37 +10230,42 @@
         <v>3224</v>
       </c>
       <c r="F86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G86" s="4">
         <v>2</v>
       </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="2" t="s">
+      <c r="H86" s="4">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
+        <v>4</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="M86" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N86" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P86" s="2"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O86" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -9955,7 +10282,7 @@
         <v>3572</v>
       </c>
       <c r="F87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G87" s="4">
@@ -9964,30 +10291,33 @@
       <c r="H87" s="4">
         <v>34</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="4">
+        <v>4</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="M87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M87" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N87" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P87" s="2"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N87" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O87" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -10004,7 +10334,7 @@
         <v>3592</v>
       </c>
       <c r="F88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G88" s="4">
@@ -10013,30 +10343,33 @@
       <c r="H88" s="4">
         <v>1</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="I88" s="4">
+        <v>6</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M88" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N88" s="4">
+      <c r="N88" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O88" s="4">
         <v>230</v>
       </c>
-      <c r="O88" s="2" t="s">
+      <c r="P88" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P88" s="2"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -10053,37 +10386,42 @@
         <v>3402</v>
       </c>
       <c r="F89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G89" s="4">
         <v>2</v>
       </c>
-      <c r="H89" s="4"/>
-      <c r="I89" s="2" t="s">
+      <c r="H89" s="4">
+        <v>42</v>
+      </c>
+      <c r="I89" s="4">
+        <v>4</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="M89" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N89" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P89" s="2"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N89" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O89" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -10100,7 +10438,7 @@
         <v>3592</v>
       </c>
       <c r="F90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G90" s="4">
@@ -10109,30 +10447,33 @@
       <c r="H90" s="4">
         <v>1</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="I90" s="4">
+        <v>6</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N90" s="4">
+      <c r="N90" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O90" s="4">
         <v>230</v>
       </c>
-      <c r="O90" s="2" t="s">
+      <c r="P90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P90" s="2"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -10149,7 +10490,7 @@
         <v>3313</v>
       </c>
       <c r="F91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G91" s="4">
@@ -10158,30 +10499,33 @@
       <c r="H91" s="4">
         <v>12</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="4">
+        <v>4</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="K91" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="L91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="M91" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M91" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N91" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P91" s="2"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O91" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -10198,7 +10542,7 @@
         <v>3306</v>
       </c>
       <c r="F92" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G92" s="4">
@@ -10207,30 +10551,33 @@
       <c r="H92" s="4">
         <v>4</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="4">
+        <v>4</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="K92" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="M92" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N92" s="4">
+      <c r="N92" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O92" s="4">
         <v>138</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P92" s="2"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -10247,7 +10594,7 @@
         <v>3303</v>
       </c>
       <c r="F93" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G93" s="4">
@@ -10256,30 +10603,33 @@
       <c r="H93" s="4">
         <v>12</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="4">
+        <v>4</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="M93" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N93" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P93" s="2"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N93" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O93" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -10296,7 +10646,7 @@
         <v>3165</v>
       </c>
       <c r="F94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G94" s="4">
@@ -10305,30 +10655,33 @@
       <c r="H94" s="4">
         <v>5</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="4">
+        <v>4</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N94" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P94" s="2"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N94" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O94" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -10345,7 +10698,7 @@
         <v>3580</v>
       </c>
       <c r="F95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G95" s="4">
@@ -10354,30 +10707,33 @@
       <c r="H95" s="4">
         <v>25</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="4">
+        <v>5</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N95" s="4">
+      <c r="N95" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O95" s="4">
         <v>230</v>
       </c>
-      <c r="O95" s="2" t="s">
+      <c r="P95" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P95" s="2"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -10394,7 +10750,7 @@
         <v>3554</v>
       </c>
       <c r="F96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G96" s="4">
@@ -10403,30 +10759,33 @@
       <c r="H96" s="4">
         <v>10</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="4">
+        <v>5</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N96" s="4">
+      <c r="N96" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O96" s="4">
         <v>230</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="P96" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -10443,7 +10802,7 @@
         <v>3184</v>
       </c>
       <c r="F97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G97" s="4">
@@ -10452,30 +10811,33 @@
       <c r="H97" s="4">
         <v>7</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="4">
+        <v>2</v>
+      </c>
+      <c r="J97" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="M97" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N97" s="4">
+      <c r="N97" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O97" s="4">
         <v>138</v>
       </c>
-      <c r="O97" s="2" t="s">
+      <c r="P97" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P97" s="2"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -10492,7 +10854,7 @@
         <v>3310</v>
       </c>
       <c r="F98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G98" s="4">
@@ -10501,30 +10863,33 @@
       <c r="H98" s="4">
         <v>18</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="I98" s="4">
+        <v>6</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="M98" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N98" s="4">
+      <c r="N98" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O98" s="4">
         <v>230</v>
       </c>
-      <c r="O98" s="2" t="s">
+      <c r="P98" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P98" s="2"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -10541,7 +10906,7 @@
         <v>3149</v>
       </c>
       <c r="F99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G99" s="4">
@@ -10550,30 +10915,33 @@
       <c r="H99" s="4">
         <v>26</v>
       </c>
-      <c r="I99" s="2" t="s">
+      <c r="I99" s="4">
+        <v>4</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="M99" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N99" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P99" s="2"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N99" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O99" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -10590,7 +10958,7 @@
         <v>3218</v>
       </c>
       <c r="F100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G100" s="4">
@@ -10599,30 +10967,33 @@
       <c r="H100" s="4">
         <v>4</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="I100" s="4">
+        <v>4</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="M100" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N100" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P100" s="2"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N100" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O100" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -10639,7 +11010,7 @@
         <v>3125</v>
       </c>
       <c r="F101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G101" s="4">
@@ -10648,30 +11019,33 @@
       <c r="H101" s="4">
         <v>5</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" s="4">
+        <v>4</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="M101" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N101" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P101" s="2"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O101" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -10688,37 +11062,42 @@
         <v>3225</v>
       </c>
       <c r="F102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G102" s="4">
         <v>2</v>
       </c>
-      <c r="H102" s="4"/>
-      <c r="I102" s="2" t="s">
+      <c r="H102" s="4">
+        <v>44</v>
+      </c>
+      <c r="I102" s="4">
+        <v>4</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="K102" s="2" t="s">
+      <c r="L102" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="M102" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M102" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N102" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P102" s="2"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N102" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O102" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -10735,7 +11114,7 @@
         <v>3098</v>
       </c>
       <c r="F103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G103" s="4">
@@ -10744,30 +11123,33 @@
       <c r="H103" s="4">
         <v>24</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="4">
+        <v>4</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="N103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N103" s="4">
+      <c r="O103" s="4">
         <v>138</v>
       </c>
-      <c r="O103" s="2" t="s">
+      <c r="P103" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P103" s="2"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -10784,7 +11166,7 @@
         <v>3332</v>
       </c>
       <c r="F104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G104" s="4">
@@ -10793,30 +11175,33 @@
       <c r="H104" s="4">
         <v>36</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" s="4">
+        <v>4</v>
+      </c>
+      <c r="J104" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N104" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O104" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O104" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -10833,7 +11218,7 @@
         <v>3154</v>
       </c>
       <c r="F105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G105" s="4">
@@ -10842,30 +11227,33 @@
       <c r="H105" s="4">
         <v>38</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="4">
+        <v>4</v>
+      </c>
+      <c r="J105" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M105" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N105" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O105" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O105" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -10882,7 +11270,7 @@
         <v>3182</v>
       </c>
       <c r="F106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G106" s="4">
@@ -10891,30 +11279,33 @@
       <c r="H106" s="4">
         <v>7</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" s="4">
+        <v>4</v>
+      </c>
+      <c r="J106" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="M106" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N106" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O106" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N106" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O106" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P106" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -10931,7 +11322,7 @@
         <v>3574</v>
       </c>
       <c r="F107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G107" s="4">
@@ -10940,30 +11331,33 @@
       <c r="H107" s="4">
         <v>37</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="4">
+        <v>4</v>
+      </c>
+      <c r="J107" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="K107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N107" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O107" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -10980,37 +11374,42 @@
         <v>3411</v>
       </c>
       <c r="F108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G108" s="4">
         <v>2</v>
       </c>
-      <c r="H108" s="4"/>
-      <c r="I108" s="2" t="s">
+      <c r="H108" s="4">
+        <v>45</v>
+      </c>
+      <c r="I108" s="4">
+        <v>2</v>
+      </c>
+      <c r="J108" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="K108" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="M108" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="N108" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N108" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O108" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O108" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -11027,37 +11426,42 @@
         <v>3575</v>
       </c>
       <c r="F109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G109" s="4">
         <v>2</v>
       </c>
-      <c r="H109" s="4"/>
-      <c r="I109" s="2" t="s">
+      <c r="H109" s="4">
+        <v>46</v>
+      </c>
+      <c r="I109" s="4">
+        <v>4</v>
+      </c>
+      <c r="J109" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="M109" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="N109" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N109" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P109" s="2"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O109" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -11074,37 +11478,42 @@
         <v>3587</v>
       </c>
       <c r="F110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G110" s="4">
         <v>2</v>
       </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="2" t="s">
+      <c r="H110" s="4">
+        <v>47</v>
+      </c>
+      <c r="I110" s="4">
+        <v>4</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M110" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N110" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O110" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N110" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O110" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P110" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -11121,7 +11530,7 @@
         <v>3581</v>
       </c>
       <c r="F111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G111" s="4">
@@ -11130,30 +11539,33 @@
       <c r="H111" s="4">
         <v>23</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="I111" s="4">
+        <v>6</v>
+      </c>
+      <c r="J111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="M111" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M111" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N111" s="4">
+      <c r="N111" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O111" s="4">
         <v>230</v>
       </c>
-      <c r="O111" s="2" t="s">
+      <c r="P111" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -11170,7 +11582,7 @@
         <v>3116</v>
       </c>
       <c r="F112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G112" s="4">
@@ -11179,30 +11591,33 @@
       <c r="H112" s="4">
         <v>27</v>
       </c>
-      <c r="I112" s="2" t="s">
+      <c r="I112" s="4">
+        <v>2</v>
+      </c>
+      <c r="J112" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="K112" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M112" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N112" s="4">
+      <c r="N112" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O112" s="4">
         <v>69</v>
       </c>
-      <c r="O112" s="2" t="s">
+      <c r="P112" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P112" s="2"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -11219,7 +11634,7 @@
         <v>3122</v>
       </c>
       <c r="F113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G113" s="4">
@@ -11228,30 +11643,33 @@
       <c r="H113" s="4">
         <v>28</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="I113" s="4">
+        <v>2</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="M113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M113" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N113" s="4">
+      <c r="N113" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O113" s="4">
         <v>138</v>
       </c>
-      <c r="O113" s="2" t="s">
+      <c r="P113" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P113" s="2"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -11268,7 +11686,7 @@
         <v>3412</v>
       </c>
       <c r="F114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G114" s="4">
@@ -11277,30 +11695,33 @@
       <c r="H114" s="4">
         <v>33</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="M114" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N114" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O114" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P114" s="2"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O114" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P114" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q114" s="2"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -11317,7 +11738,7 @@
         <v>3175</v>
       </c>
       <c r="F115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G115" s="4">
@@ -11326,30 +11747,33 @@
       <c r="H115" s="4">
         <v>29</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="K115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="M115" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="M115" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N115" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P115" s="2"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N115" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O115" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q115" s="2"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -11366,7 +11790,7 @@
         <v>3129</v>
       </c>
       <c r="F116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G116" s="4">
@@ -11375,30 +11799,33 @@
       <c r="H116" s="4">
         <v>12</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="I116" s="4">
+        <v>4</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="M116" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="M116" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N116" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P116" s="2"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N116" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O116" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P116" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -11415,7 +11842,7 @@
         <v>3586</v>
       </c>
       <c r="F117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G117" s="4">
@@ -11424,28 +11851,31 @@
       <c r="H117" s="4">
         <v>36</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="I117" s="4">
+        <v>4</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="M117" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="M117" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N117" s="4">
-        <v>34.5</v>
-      </c>
-      <c r="O117" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P117" s="2"/>
+      <c r="N117" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O117" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="P117" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q117" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11453,10 +11883,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94804C32-9920-4955-88D4-923FDBD86FA0}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D734B5-7AC8-48EF-BC27-9AA3576C71AA}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A30" sqref="A30:D39"/>
     </sheetView>
   </sheetViews>
